--- a/endpoints.xlsx
+++ b/endpoints.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t xml:space="preserve">Endpoints</t>
   </si>
@@ -1112,10 +1112,120 @@
     <t xml:space="preserve">traitementSup</t>
   </si>
   <si>
-    <t xml:space="preserve">stagiaireControler.php case traitementSup – recuperer l’id transmise par le formulaire – invoque deleteStagiaire() avec l’id en argument – on redirige vers le dashboard avec un msg </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">stagiaireControler.php case </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">traitementSup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> – recuperer l’id transmise par le formulaire – invoque deleteStagiaire() avec l’id en argument – on redirige vers le dashboard avec un msg </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">deleteStagiaire() @param id @return boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?path=evaluation&amp;action=formAjout&amp;idStagiaire={x}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">index.php case </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FFFFBF00"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">evaluation</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluationControler.php case formAjout -recuperer l’id stagiaire – recuperer les matieres avec fetchAllMatiere()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forumlaire d’ajout d’une evaluation avec des champs note, date, matiere et idStagiaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fetchAllMatiere() @return les matierer (array)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?path=evaluation&amp;action=traitementAjout</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">evaluationControler.php case </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">traitementAjout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> – recuperer les données du formulaire dans des variables -invoquer la fonction createEvaluation() avec les bons arguments</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">createEvaluation()   
+ @param $note int
+ @param $date date
+ @param $idMat int
+ @param $idSta int
+ @return bool</t>
   </si>
 </sst>
 </file>
@@ -1508,8 +1618,8 @@
   </sheetPr>
   <dimension ref="B2:H20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B12" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1774,38 +1884,66 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="8"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
+    <row r="14" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="8"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
+    <row r="15" customFormat="false" ht="79.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="8"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="10"/>
       <c r="G16" s="12"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="8"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="10"/>
       <c r="G17" s="12"/>
       <c r="H17" s="13"/>
